--- a/report/sprint 2/Sprint Retrospective.xlsx
+++ b/report/sprint 2/Sprint Retrospective.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/CS561_Project/Restaurant-Reservation/report/sprint 2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>What we did now</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,23 +111,68 @@
   <si>
     <t xml:space="preserve">Improve UI </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We implement the making reservation function.</t>
+  </si>
+  <si>
+    <t>We implement the confirming reservation function.</t>
+  </si>
+  <si>
+    <t>We implement the sending notification function.</t>
+  </si>
+  <si>
+    <t>We create three different types of accounts, which include customer, owner and admin.</t>
+  </si>
+  <si>
+    <t>In the login the registration page, the password is no hiding.</t>
+  </si>
+  <si>
+    <t>There's scroll button to view the message and restaurant easily.</t>
+  </si>
+  <si>
+    <t>The information on the making reservation page is not detail enough.</t>
+  </si>
+  <si>
+    <t>The notification form is too small and not clear. Also need a double check.</t>
+  </si>
+  <si>
+    <t>We will hide the password when the user input it.</t>
+  </si>
+  <si>
+    <t>We will add pages and switching pages function.</t>
+  </si>
+  <si>
+    <t>We will add more information on our pages.</t>
+  </si>
+  <si>
+    <t>We will give the user more time to consider their reservation</t>
+  </si>
+  <si>
+    <t>Complete the function of modifying the restaurant information.</t>
+  </si>
+  <si>
+    <t>Try to ddd the function of cancelling order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve UI </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -148,7 +205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,16 +519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="40.59765625" customWidth="1"/>
+    <col min="2" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -527,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -539,7 +596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -550,4 +607,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>